--- a/SMB1/Research Docs/Room IDs.xlsx
+++ b/SMB1/Research Docs/Room IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>0xX0</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>0x7X</t>
-  </si>
-  <si>
-    <t>0xAX</t>
-  </si>
-  <si>
-    <t>0xBX</t>
   </si>
   <si>
     <t>0xX1</t>
@@ -547,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,49 +558,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -630,7 +624,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -654,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -718,7 +712,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -742,52 +736,52 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -795,22 +789,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -824,9 +818,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -846,7 +838,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -866,10 +858,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -906,18 +906,10 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -934,7 +926,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -954,13 +946,27 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -974,7 +980,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -994,27 +1000,13 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1027,9 +1019,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1122,44 +1112,6 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
